--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.4928273031215</v>
+        <v>135.7134363298854</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.5494050324606</v>
+        <v>185.6891108407189</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.9903039206389</v>
+        <v>167.9672027184368</v>
       </c>
       <c r="AD2" t="n">
-        <v>111492.8273031215</v>
+        <v>135713.4363298854</v>
       </c>
       <c r="AE2" t="n">
-        <v>152549.4050324606</v>
+        <v>185689.1108407188</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.549540085429009e-06</v>
+        <v>8.417840293284669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.33984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>137990.3039206389</v>
+        <v>167967.2027184368</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.97715519915576</v>
+        <v>108.2830155719402</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.9012485540535</v>
+        <v>148.157599014961</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.9352346569995</v>
+        <v>134.0176457055096</v>
       </c>
       <c r="AD3" t="n">
-        <v>83977.15519915576</v>
+        <v>108283.0155719402</v>
       </c>
       <c r="AE3" t="n">
-        <v>114901.2485540535</v>
+        <v>148157.599014961</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183868917730862e-06</v>
+        <v>9.59151470948431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.931315104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>103935.2346569995</v>
+        <v>134017.6457055096</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.84633280154924</v>
+        <v>105.6101344428174</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.4046927470285</v>
+        <v>144.5004451349039</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.1499290884042</v>
+        <v>130.7095254589163</v>
       </c>
       <c r="AD2" t="n">
-        <v>93846.33280154924</v>
+        <v>105610.1344428174</v>
       </c>
       <c r="AE2" t="n">
-        <v>128404.6927470285</v>
+        <v>144500.4451349039</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.167053511410864e-06</v>
+        <v>9.849201436511353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0419921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>116149.9290884042</v>
+        <v>130709.5254589163</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.78574728555419</v>
+        <v>105.5495489268223</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.3217969711997</v>
+        <v>144.4175493590752</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0749447690756</v>
+        <v>130.6345411395877</v>
       </c>
       <c r="AD3" t="n">
-        <v>93785.7472855542</v>
+        <v>105549.5489268223</v>
       </c>
       <c r="AE3" t="n">
-        <v>128321.7969711998</v>
+        <v>144417.5493590752</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183376520989502e-06</v>
+        <v>9.880315611937459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.0322265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>116074.9447690756</v>
+        <v>130634.5411395877</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.68471579519915</v>
+        <v>118.6116007775806</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6565376964441</v>
+        <v>162.2896249583312</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.90054532686</v>
+        <v>146.8009309272721</v>
       </c>
       <c r="AD2" t="n">
-        <v>97684.71579519915</v>
+        <v>118611.6007775806</v>
       </c>
       <c r="AE2" t="n">
-        <v>133656.5376964441</v>
+        <v>162289.6249583312</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.536604406144277e-06</v>
+        <v>9.661780142402605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>120900.54532686</v>
+        <v>146800.9309272721</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.30597676773768</v>
+        <v>115.0789766595459</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.6653537827421</v>
+        <v>157.4561327916616</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4811515972003</v>
+        <v>142.428740469139</v>
       </c>
       <c r="AD2" t="n">
-        <v>93305.97676773768</v>
+        <v>115078.9766595459</v>
       </c>
       <c r="AE2" t="n">
-        <v>127665.3537827421</v>
+        <v>157456.1327916617</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.925665482750196e-06</v>
+        <v>1.000080388849796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.406575520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>115481.1515972003</v>
+        <v>142428.740469139</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0905870513025</v>
+        <v>136.0983122992687</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.8402627587631</v>
+        <v>186.2157151215582</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.6807710148193</v>
+        <v>168.4435486258068</v>
       </c>
       <c r="AD2" t="n">
-        <v>116090.5870513025</v>
+        <v>136098.3122992687</v>
       </c>
       <c r="AE2" t="n">
-        <v>158840.2627587631</v>
+        <v>186215.7151215583</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.060412343451051e-06</v>
+        <v>9.041745192718029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.4873046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>143680.7710148193</v>
+        <v>168443.5486258068</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.57831505899291</v>
+        <v>107.4556348951356</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.7744672813262</v>
+        <v>147.0255402714983</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.2935356671487</v>
+        <v>132.9936290596682</v>
       </c>
       <c r="AD2" t="n">
-        <v>95578.31505899291</v>
+        <v>107455.6348951356</v>
       </c>
       <c r="AE2" t="n">
-        <v>130774.4672813262</v>
+        <v>147025.5402714983</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.118053848196283e-06</v>
+        <v>9.677030270224787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.043619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>118293.5356671487</v>
+        <v>132993.6290596682</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.5924118081432</v>
+        <v>106.4697316442859</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.4255109585326</v>
+        <v>145.6765839487047</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.07332184253</v>
+        <v>131.7734152350495</v>
       </c>
       <c r="AD3" t="n">
-        <v>94592.4118081432</v>
+        <v>106469.7316442859</v>
       </c>
       <c r="AE3" t="n">
-        <v>129425.5109585326</v>
+        <v>145676.5839487047</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.175867660134016e-06</v>
+        <v>9.786342525381245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.009440104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>117073.32184253</v>
+        <v>131773.4152350495</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.4825575959258</v>
+        <v>154.0818250740741</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.0049682543791</v>
+        <v>210.8215506766248</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.4437923368277</v>
+        <v>190.7010377700126</v>
       </c>
       <c r="AD2" t="n">
-        <v>134482.5575959258</v>
+        <v>154081.8250740741</v>
       </c>
       <c r="AE2" t="n">
-        <v>184004.9682543791</v>
+        <v>210821.5506766248</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.696000998983686e-06</v>
+        <v>8.473328991526049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0439453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>166443.7923368277</v>
+        <v>190701.0377700126</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.84027387619659</v>
+        <v>104.2356540514045</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.0281585411743</v>
+        <v>142.6198204255784</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.9047693751785</v>
+        <v>129.0083849323749</v>
       </c>
       <c r="AD2" t="n">
-        <v>92840.27387619659</v>
+        <v>104235.6540514045</v>
       </c>
       <c r="AE2" t="n">
-        <v>127028.1585411743</v>
+        <v>142619.8204255785</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.097870428454801e-06</v>
+        <v>9.991755587537626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>114904.7693751785</v>
+        <v>129008.3849323749</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.29667640491847</v>
+        <v>104.9426431794739</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.6526286160298</v>
+        <v>143.5871541407617</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4696409025392</v>
+        <v>129.8833976754428</v>
       </c>
       <c r="AD2" t="n">
-        <v>93296.67640491847</v>
+        <v>104942.6431794739</v>
       </c>
       <c r="AE2" t="n">
-        <v>127652.6286160298</v>
+        <v>143587.1541407617</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.156362785418202e-06</v>
+        <v>9.914154615503781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.077799479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115469.6409025392</v>
+        <v>129883.3976754427</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.59051796820931</v>
+        <v>105.2364847427648</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.054675606299</v>
+        <v>143.9892011310309</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.8333170923337</v>
+        <v>130.2470738652373</v>
       </c>
       <c r="AD3" t="n">
-        <v>93590.51796820931</v>
+        <v>105236.4847427648</v>
       </c>
       <c r="AE3" t="n">
-        <v>128054.675606299</v>
+        <v>143989.2011310309</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.155777765814683e-06</v>
+        <v>9.91302979650951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.077799479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>115833.3170923337</v>
+        <v>130247.0738652373</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2725536738325</v>
+        <v>115.3654986217529</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.3020639999952</v>
+        <v>157.84816478081</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.8163933305662</v>
+        <v>142.7833574754635</v>
       </c>
       <c r="AD2" t="n">
-        <v>103272.5536738325</v>
+        <v>115365.498621753</v>
       </c>
       <c r="AE2" t="n">
-        <v>141302.0639999952</v>
+        <v>157848.16478081</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.832389660828558e-06</v>
+        <v>9.002375418647315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.170572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127816.3933305662</v>
+        <v>142783.3574754635</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.39663151652749</v>
+        <v>107.4970015406946</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.1069504405845</v>
+        <v>147.0821399409197</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.2167432406754</v>
+        <v>133.0448269360782</v>
       </c>
       <c r="AD3" t="n">
-        <v>83396.63151652749</v>
+        <v>107497.0015406946</v>
       </c>
       <c r="AE3" t="n">
-        <v>114106.9504405845</v>
+        <v>147082.1399409197</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.191334373594642e-06</v>
+        <v>9.67106219385757e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.950846354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>103216.7432406754</v>
+        <v>133044.8269360781</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.08984886258899</v>
+        <v>115.1602236402146</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3696380480276</v>
+        <v>157.5672984949763</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.2136585571672</v>
+        <v>142.5292966737514</v>
       </c>
       <c r="AD2" t="n">
-        <v>93089.84886258899</v>
+        <v>115160.2236402146</v>
       </c>
       <c r="AE2" t="n">
-        <v>127369.6380480276</v>
+        <v>157567.2984949763</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.990982385189463e-06</v>
+        <v>1.000441098978599e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>115213.6585571672</v>
+        <v>142529.2966737514</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.4945962527425</v>
+        <v>116.7850942664863</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.6599195172014</v>
+        <v>159.790518170073</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1899201808632</v>
+        <v>144.540335383366</v>
       </c>
       <c r="AD2" t="n">
-        <v>95494.5962527425</v>
+        <v>116785.0942664863</v>
       </c>
       <c r="AE2" t="n">
-        <v>130659.9195172014</v>
+        <v>159790.518170073</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.701008225310727e-06</v>
+        <v>9.834803198611954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>118189.9201808631</v>
+        <v>144540.335383366</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.3210657470523</v>
+        <v>131.7665848068195</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.3143932938617</v>
+        <v>180.2888544640626</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.7777213725308</v>
+        <v>163.0823392310594</v>
       </c>
       <c r="AD2" t="n">
-        <v>111321.0657470523</v>
+        <v>131766.5848068194</v>
       </c>
       <c r="AE2" t="n">
-        <v>152314.3932938617</v>
+        <v>180288.8544640626</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.327253736824138e-06</v>
+        <v>9.406825503429656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.1259765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>137777.7213725308</v>
+        <v>163082.3392310594</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.6866185761981</v>
+        <v>188.1384992532988</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.490276412265</v>
+        <v>257.419394763042</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.63787108457</v>
+        <v>232.851649017322</v>
       </c>
       <c r="AD2" t="n">
-        <v>159686.6185761981</v>
+        <v>188138.4992532989</v>
       </c>
       <c r="AE2" t="n">
-        <v>218490.276412265</v>
+        <v>257419.394763042</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184075034648456e-06</v>
+        <v>7.573408323791995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.018880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>197637.87108457</v>
+        <v>232851.6490173221</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.86490782241846</v>
+        <v>104.3882536321229</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.0618637931681</v>
+        <v>142.8286139041358</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.9352578452276</v>
+        <v>129.1972514543822</v>
       </c>
       <c r="AD2" t="n">
-        <v>92864.90782241846</v>
+        <v>104388.2536321229</v>
       </c>
       <c r="AE2" t="n">
-        <v>127061.8637931681</v>
+        <v>142828.6139041357</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139298383315609e-06</v>
+        <v>9.97321038020125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.118489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>114935.2578452276</v>
+        <v>129197.2514543822</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.97528371141819</v>
+        <v>110.9622039240935</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.4223496552522</v>
+        <v>151.8233827158236</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4978306706526</v>
+        <v>137.3335721549228</v>
       </c>
       <c r="AD2" t="n">
-        <v>98975.28371141819</v>
+        <v>110962.2039240935</v>
       </c>
       <c r="AE2" t="n">
-        <v>135422.3496552522</v>
+        <v>151823.3827158236</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.989495492211199e-06</v>
+        <v>9.362250569434497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.095703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>122497.8306706526</v>
+        <v>137333.5721549228</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.75693541401462</v>
+        <v>106.6452559676916</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.2316900117265</v>
+        <v>145.9167440715749</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.4250164387116</v>
+        <v>131.9906548128598</v>
       </c>
       <c r="AD3" t="n">
-        <v>82756.93541401462</v>
+        <v>106645.2559676916</v>
       </c>
       <c r="AE3" t="n">
-        <v>113231.6900117265</v>
+        <v>145916.7440715749</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.199878183137847e-06</v>
+        <v>9.757011015856762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.970377604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>102425.0164387116</v>
+        <v>131990.6548128598</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.7036131404752</v>
+        <v>248.2591336473877</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.6622232029126</v>
+        <v>339.6790990761901</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.0172671639955</v>
+        <v>307.2606026030696</v>
       </c>
       <c r="AD2" t="n">
-        <v>211703.6131404752</v>
+        <v>248259.1336473877</v>
       </c>
       <c r="AE2" t="n">
-        <v>289662.2232029126</v>
+        <v>339679.0990761901</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.449426096248996e-06</v>
+        <v>6.125828780919445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.102213541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>262017.2671639955</v>
+        <v>307260.6026030696</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.27792901523274</v>
+        <v>115.9058229639183</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.9952217272711</v>
+        <v>158.5874603831879</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.6840988115853</v>
+        <v>143.4520957431586</v>
       </c>
       <c r="AD2" t="n">
-        <v>94277.92901523274</v>
+        <v>115905.8229639183</v>
       </c>
       <c r="AE2" t="n">
-        <v>128995.2217272711</v>
+        <v>158587.4603831879</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.822385163607353e-06</v>
+        <v>9.930657996095911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.527018229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>116684.0988115853</v>
+        <v>143452.0957431586</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.90520705367959</v>
+        <v>104.166603891004</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.1170029792562</v>
+        <v>142.5253429498406</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.9851346247837</v>
+        <v>128.9229242543214</v>
       </c>
       <c r="AD2" t="n">
-        <v>92905.20705367959</v>
+        <v>104166.603891004</v>
       </c>
       <c r="AE2" t="n">
-        <v>127117.0029792562</v>
+        <v>142525.3429498406</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.049337527235171e-06</v>
+        <v>1.000366728398711e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.243815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114985.1346247837</v>
+        <v>128922.9242543214</v>
       </c>
     </row>
   </sheetData>
